--- a/data/inst_5.xlsx
+++ b/data/inst_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/marta_sierra_sanz_alumnos_upm_es/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F735C3A-C08C-473E-A380-990F0D42FDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BBCD78-BED9-4A81-A6DD-7B9778FAEB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="10740" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1534,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/inst_5.xlsx
+++ b/data/inst_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BBCD78-BED9-4A81-A6DD-7B9778FAEB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F85944-879C-4F36-B531-25B6DBD8F360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="10740" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>

--- a/data/inst_5.xlsx
+++ b/data/inst_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F85944-879C-4F36-B531-25B6DBD8F360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65899FC-DDD1-438B-BA32-E7D6C7280123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20490" windowHeight="10740" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -781,7 +781,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +893,7 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/inst_5.xlsx
+++ b/data/inst_5.xlsx
@@ -5,26 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/marta_sierra_sanz_alumnos_upm_es/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65899FC-DDD1-438B-BA32-E7D6C7280123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{2D983696-92DA-4993-BE9D-23E3A36BA551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{595C97CC-8F40-42ED-A16A-96DF974F1E68}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20085" windowHeight="10740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="parameters" sheetId="3" r:id="rId1"/>
-    <sheet name="trip_duration" sheetId="2" r:id="rId2"/>
-    <sheet name="comp_quantity_inst1" sheetId="1" r:id="rId3"/>
+    <sheet name="parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="trip_duration" sheetId="3" r:id="rId2"/>
+    <sheet name="comp_quantity_inst1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -41,7 +35,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="28">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>vehicle_capacity</t>
+  </si>
+  <si>
+    <t>fleet_size</t>
+  </si>
+  <si>
+    <t>load_pallet</t>
+  </si>
+  <si>
+    <t>unload_pallet</t>
+  </si>
+  <si>
+    <t>req_time_limit</t>
+  </si>
+  <si>
+    <t>opt_time_limit</t>
+  </si>
+  <si>
+    <t>bigM1</t>
+  </si>
+  <si>
+    <t>bigM2</t>
+  </si>
+  <si>
+    <t>bigM3</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>location1</t>
+  </si>
+  <si>
+    <t>location2</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
   <si>
     <t>origin</t>
   </si>
@@ -52,79 +112,13 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>vehicle_capacity</t>
-  </si>
-  <si>
-    <t>fleet_size</t>
-  </si>
-  <si>
-    <t>load_pallet</t>
-  </si>
-  <si>
-    <t>unload_pallet</t>
-  </si>
-  <si>
-    <t>req_time_limit</t>
-  </si>
-  <si>
-    <t>opt_time_limit</t>
-  </si>
-  <si>
-    <t>bigM1</t>
-  </si>
-  <si>
-    <t>bigM2</t>
-  </si>
-  <si>
-    <t>bigM3</t>
-  </si>
-  <si>
     <t>average_time_d</t>
   </si>
   <si>
     <t>no_stops</t>
-  </si>
-  <si>
-    <t>location1</t>
-  </si>
-  <si>
-    <t>location2</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
 </sst>
 </file>
@@ -169,6 +163,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -178,307 +240,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="parameters"/>
-      <sheetName val="trip_duration"/>
-      <sheetName val="comp_quantity_inst1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="C2">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,26 +538,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>22</v>
@@ -804,15 +568,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -820,7 +584,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -828,7 +592,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>480</v>
@@ -836,7 +600,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>600</v>
@@ -844,7 +608,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>35</v>
@@ -852,7 +616,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>600</v>
@@ -860,7 +624,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>120</v>
@@ -868,53 +632,57 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
-        <f>AVERAGE([1]trip_duration!C2:C57)</f>
+        <f>AVERAGE(trip_duration!C2:C57)</f>
         <v>17.857142857142858</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A54DE7-45BC-48AF-A573-13FFF226C261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -922,10 +690,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -933,10 +701,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -944,10 +712,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -955,10 +723,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -966,10 +734,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -977,10 +745,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -988,10 +756,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -999,10 +767,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1010,10 +778,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -1021,10 +789,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -1032,10 +800,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>35</v>
@@ -1043,10 +811,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1054,10 +822,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1065,10 +833,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1076,10 +844,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1087,10 +855,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -1098,10 +866,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>25</v>
@@ -1109,10 +877,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>35</v>
@@ -1120,10 +888,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1131,10 +899,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1142,10 +910,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>15</v>
@@ -1153,10 +921,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -1164,10 +932,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>15</v>
@@ -1175,10 +943,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -1186,10 +954,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -1197,10 +965,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -1208,10 +976,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>20</v>
@@ -1219,10 +987,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -1230,10 +998,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -1241,10 +1009,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>25</v>
@@ -1252,10 +1020,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -1263,10 +1031,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C34">
         <v>25</v>
@@ -1274,10 +1042,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>25</v>
@@ -1285,10 +1053,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>25</v>
@@ -1296,10 +1064,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>35</v>
@@ -1307,10 +1075,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>35</v>
@@ -1318,10 +1086,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>35</v>
@@ -1329,10 +1097,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>25</v>
@@ -1340,10 +1108,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>25</v>
@@ -1351,10 +1119,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>35</v>
@@ -1362,10 +1130,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C43">
         <v>35</v>
@@ -1373,10 +1141,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1384,10 +1152,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1395,10 +1163,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1406,10 +1174,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -1417,10 +1185,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>25</v>
@@ -1428,10 +1196,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>35</v>
@@ -1439,10 +1207,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1450,10 +1218,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -1461,10 +1229,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -1472,10 +1240,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1483,10 +1251,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -1494,10 +1262,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>25</v>
@@ -1505,10 +1273,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>35</v>
@@ -1516,10 +1284,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1527,42 +1295,43 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1570,13 +1339,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1584,13 +1353,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
         <v>4</v>
-      </c>
-      <c r="C4">
-        <v>98</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1598,13 +1367,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1612,13 +1381,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1626,13 +1395,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1640,13 +1409,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1654,13 +1423,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1668,299 +1437,104 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>322</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>218</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>823</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>240</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>220</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>374</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>212</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>176</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>198</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>488</v>
-      </c>
-      <c r="D30">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/data/inst_5.xlsx
+++ b/data/inst_5.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/marta_sierra_sanz_alumnos_upm_es/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2D983696-92DA-4993-BE9D-23E3A36BA551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{595C97CC-8F40-42ED-A16A-96DF974F1E68}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E060A3-44A5-42CB-83AA-5E1FE4718457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20085" windowHeight="10740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11745" yWindow="1290" windowWidth="15375" windowHeight="8850" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="trip_duration" sheetId="3" r:id="rId2"/>
-    <sheet name="comp_quantity_inst1" sheetId="4" r:id="rId3"/>
+    <sheet name="parameters" sheetId="3" r:id="rId1"/>
+    <sheet name="trip_duration" sheetId="2" r:id="rId2"/>
+    <sheet name="comp_quantity_inst1" sheetId="1" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,7 +41,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -70,28 +112,10 @@
     <t>bigM3</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
+    <t>average_time_d</t>
+  </si>
+  <si>
+    <t>no_stops</t>
   </si>
   <si>
     <t>location1</t>
@@ -101,31 +125,13 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>average_time_d</t>
-  </si>
-  <si>
-    <t>no_stops</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +139,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,83 +173,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00E3E3E3"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -240,6 +193,307 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="parameters"/>
+      <sheetName val="trip_duration"/>
+      <sheetName val="comp_quantity_inst1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="C2">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,45 +792,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -584,7 +838,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -592,23 +846,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
         <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>35</v>
@@ -616,7 +870,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>600</v>
@@ -624,7 +878,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>120</v>
@@ -632,57 +886,53 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
-        <f>AVERAGE(trip_duration!C2:C57)</f>
+        <f>AVERAGE([1]trip_duration!C2:C57)</f>
         <v>17.857142857142858</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A54DE7-45BC-48AF-A573-13FFF226C261}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="17" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -690,10 +940,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -701,10 +951,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -712,10 +962,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -723,10 +973,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -734,10 +984,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -745,10 +995,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -756,10 +1006,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -767,10 +1017,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -778,10 +1028,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -789,10 +1039,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -800,10 +1050,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>35</v>
@@ -811,10 +1061,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -822,10 +1072,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -833,10 +1083,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -844,10 +1094,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -855,10 +1105,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -866,10 +1116,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>25</v>
@@ -877,10 +1127,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>35</v>
@@ -888,10 +1138,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -899,10 +1149,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -910,10 +1160,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>15</v>
@@ -921,10 +1171,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -932,10 +1182,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>15</v>
@@ -943,10 +1193,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>15</v>
@@ -954,10 +1204,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -965,10 +1215,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -976,10 +1226,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>20</v>
@@ -987,10 +1237,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -998,10 +1248,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -1009,10 +1259,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>25</v>
@@ -1020,10 +1270,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -1031,10 +1281,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>25</v>
@@ -1042,10 +1292,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>25</v>
@@ -1053,10 +1303,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>25</v>
@@ -1064,10 +1314,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>35</v>
@@ -1075,10 +1325,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>35</v>
@@ -1086,10 +1336,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>35</v>
@@ -1097,10 +1347,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>25</v>
@@ -1108,10 +1358,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>25</v>
@@ -1119,10 +1369,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>35</v>
@@ -1130,10 +1380,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>35</v>
@@ -1141,10 +1391,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1152,10 +1402,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1163,10 +1413,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1174,10 +1424,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -1185,10 +1435,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <v>25</v>
@@ -1196,10 +1446,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>35</v>
@@ -1207,10 +1457,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1218,10 +1468,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -1229,10 +1479,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -1240,10 +1490,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1251,10 +1501,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -1262,10 +1512,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C55">
         <v>25</v>
@@ -1273,10 +1523,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>35</v>
@@ -1284,10 +1534,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1295,246 +1545,342 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>37</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>322</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>218</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>48</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>143</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>102</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>105</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>60</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>58</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>91</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
+      <c r="C10" s="3">
+        <v>823</v>
+      </c>
+      <c r="D10" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004EB831025BF00641AE88F2A902AAAF1B" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="922787e71b43b1c3ae0f2ec30aa8cf0c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a01b58d8-c5db-4160-879c-9baa1e9d5116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="549c965bef73b0ff34fc7fce22a81277" ns2:_="">
+    <xsd:import namespace="a01b58d8-c5db-4160-879c-9baa1e9d5116"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a01b58d8-c5db-4160-879c-9baa1e9d5116" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2589810-7BFA-47D4-83A1-6AC043710CE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a01b58d8-c5db-4160-879c-9baa1e9d5116"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/inst_5.xlsx
+++ b/data/inst_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E060A3-44A5-42CB-83AA-5E1FE4718457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192D234-3FCD-4FA1-AC44-6A37B752572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11745" yWindow="1290" windowWidth="15375" windowHeight="8850" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -1553,7 +1553,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>823</v>
+        <v>523</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1704,6 +1704,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004EB831025BF00641AE88F2A902AAAF1B" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="922787e71b43b1c3ae0f2ec30aa8cf0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a01b58d8-c5db-4160-879c-9baa1e9d5116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="549c965bef73b0ff34fc7fce22a81277" ns2:_="">
     <xsd:import namespace="a01b58d8-c5db-4160-879c-9baa1e9d5116"/>
@@ -1835,22 +1850,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2589810-7BFA-47D4-83A1-6AC043710CE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1866,21 +1883,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/inst_5.xlsx
+++ b/data/inst_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192D234-3FCD-4FA1-AC44-6A37B752572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54653951-60E6-4282-998A-FF9AB3A680F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="40">
   <si>
     <t>origin</t>
   </si>
@@ -125,6 +125,42 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -173,11 +209,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,18 +834,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -812,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -820,7 +861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -828,7 +869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -836,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -844,7 +885,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -852,7 +893,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -860,7 +901,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -868,7 +909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -876,7 +917,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -884,7 +925,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -893,12 +934,30 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>7</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <f>SUM(comp_quantity_inst1!C2:C6)</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <f>SUM(comp_quantity_inst1!C7:C10)</f>
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
@@ -914,9 +973,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -927,7 +986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -938,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -949,7 +1008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -960,7 +1019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -971,7 +1030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -982,7 +1041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -993,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1048,7 +1107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1191,7 +1250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1202,7 +1261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1224,7 +1283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1235,7 +1294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1257,7 +1316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1268,7 +1327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1345,7 +1404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1356,7 +1415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1367,7 +1426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1378,7 +1437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1389,7 +1448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1433,7 +1492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1444,7 +1503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1488,7 +1547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +1569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1532,7 +1591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1550,153 +1609,189 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>98</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>31</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>24</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
         <v>322</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>218</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>523</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1704,18 +1799,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1851,18 +1946,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/inst_5.xlsx
+++ b/data/inst_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54653951-60E6-4282-998A-FF9AB3A680F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192D234-3FCD-4FA1-AC44-6A37B752572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -125,42 +125,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>no_req_total</t>
-  </si>
-  <si>
-    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -209,16 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,18 +793,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -853,7 +812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -861,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -869,7 +828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -877,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -885,7 +844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -893,7 +852,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -901,7 +860,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -909,7 +868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -917,7 +876,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -925,7 +884,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -934,30 +893,12 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <f>SUM(comp_quantity_inst1!C2:C6)</f>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <f>SUM(comp_quantity_inst1!C7:C10)</f>
-        <v>1087</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -973,9 +914,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -986,7 +927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -997,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1041,7 +982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1074,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1107,7 +1048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1129,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1140,7 +1081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1173,7 +1114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1184,7 +1125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1195,7 +1136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1217,7 +1158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1228,7 +1169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1283,7 +1224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1294,7 +1235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1305,7 +1246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1338,7 +1279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1371,7 +1312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1393,7 +1334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1404,7 +1345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1415,7 +1356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1426,7 +1367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1437,7 +1378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +1389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1470,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1503,7 +1444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1536,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1558,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1591,7 +1532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1609,189 +1550,153 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>98</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>322</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="C9" s="3">
+        <v>218</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>523</v>
+      </c>
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>322</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>218</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>523</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1799,18 +1704,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1946,18 +1851,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/inst_5.xlsx
+++ b/data/inst_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192D234-3FCD-4FA1-AC44-6A37B752572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD6F78F-2BB3-4AF2-8A5D-911C4018D3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
   <si>
     <t>origin</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -793,18 +799,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -812,7 +818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -820,7 +826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -828,7 +834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -836,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -844,7 +850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -852,7 +858,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -860,7 +866,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -868,7 +874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -876,7 +882,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -884,7 +890,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -893,12 +899,28 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
@@ -914,9 +936,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -927,7 +949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -938,7 +960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -949,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -960,7 +982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -971,7 +993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -982,7 +1004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -993,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1048,7 +1070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1191,7 +1213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1202,7 +1224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1224,7 +1246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1235,7 +1257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1257,7 +1279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1268,7 +1290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1345,7 +1367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1356,7 +1378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1367,7 +1389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1378,7 +1400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1389,7 +1411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1433,7 +1455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1444,7 +1466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1488,7 +1510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +1532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1532,7 +1554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1552,13 +1574,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1614,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1628,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1642,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1670,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1684,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,21 +1726,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004EB831025BF00641AE88F2A902AAAF1B" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="922787e71b43b1c3ae0f2ec30aa8cf0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a01b58d8-c5db-4160-879c-9baa1e9d5116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="549c965bef73b0ff34fc7fce22a81277" ns2:_="">
     <xsd:import namespace="a01b58d8-c5db-4160-879c-9baa1e9d5116"/>
@@ -1850,24 +1857,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2589810-7BFA-47D4-83A1-6AC043710CE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1883,4 +1888,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4F665F3-1E57-4CCF-A68E-CA487352D404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E555F8B-86CD-499D-908D-6C46A60A7E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>